--- a/Base.xlsx
+++ b/Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupococal.sharepoint.com/sites/Automaoboletins/Documentos Partilhados/Recursos Humanos/DHO/PHYTON/MeuDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_F8D6A82217A73A11B0C00D2B08C520B830B3EDC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35EF0C27-3F05-410D-9E13-22D45C2E4E6C}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_F8D6A82217A73A11B0C00D2B08C520B830B3EDC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0862EDA2-FB86-41D5-A0A3-1B0794FA91F6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>PPT</t>
+  </si>
+  <si>
+    <t>SOMAR IDEIAS</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -517,7 +520,7 @@
     <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,8 +539,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>3008400</v>
       </c>
@@ -557,7 +563,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>3008500</v>
       </c>
@@ -577,7 +583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3008700</v>
       </c>
@@ -596,8 +602,11 @@
       <c r="F4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>3008800</v>
       </c>
@@ -617,7 +626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>3009200</v>
       </c>
@@ -637,7 +646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>3010100</v>
       </c>
@@ -657,7 +666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>3013900</v>
       </c>
@@ -677,7 +686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>3014200</v>
       </c>
@@ -697,7 +706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>3014500</v>
       </c>
@@ -716,8 +725,11 @@
       <c r="F10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>3014900</v>
       </c>
@@ -737,7 +749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>3438900</v>
       </c>
@@ -757,7 +769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>3008600</v>
       </c>
@@ -777,7 +789,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>3008900</v>
       </c>
@@ -797,7 +809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>3013700</v>
       </c>
@@ -828,26 +840,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6cfdc422-4535-48e1-a7d6-54c46d46b3db">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fd004d49-9b54-446a-bd24-b27319634c19" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002A76BE3EC65CB949A388A0006AFBA350" ma:contentTypeVersion="14" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="12d2b671dc11efdd8b011f1a12bd546d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6cfdc422-4535-48e1-a7d6-54c46d46b3db" xmlns:ns3="fd004d49-9b54-446a-bd24-b27319634c19" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="700d5dfc38fcea7e0185f85e8ac1c034" ns2:_="" ns3:_="">
     <xsd:import namespace="6cfdc422-4535-48e1-a7d6-54c46d46b3db"/>
@@ -1076,26 +1068,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FBBB00-82D6-4DF6-9A26-748E99A10370}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6cfdc422-4535-48e1-a7d6-54c46d46b3db"/>
-    <ds:schemaRef ds:uri="fd004d49-9b54-446a-bd24-b27319634c19"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFE6D547-826E-4971-B6CB-F0E20E3BD5FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6cfdc422-4535-48e1-a7d6-54c46d46b3db">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fd004d49-9b54-446a-bd24-b27319634c19" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1318481C-CA69-429D-8C0D-91FF900F8D59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1112,4 +1105,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFE6D547-826E-4971-B6CB-F0E20E3BD5FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FBBB00-82D6-4DF6-9A26-748E99A10370}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6cfdc422-4535-48e1-a7d6-54c46d46b3db"/>
+    <ds:schemaRef ds:uri="fd004d49-9b54-446a-bd24-b27319634c19"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Base.xlsx
+++ b/Base.xlsx
@@ -507,7 +507,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>

--- a/Base.xlsx
+++ b/Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupococal.sharepoint.com/sites/Automaoboletins/Documentos Partilhados/Recursos Humanos/DHO/PHYTON/MeuDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_F8D6A82217A73A11B0C00D2B08C520B830B3EDC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0862EDA2-FB86-41D5-A0A3-1B0794FA91F6}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="11_F8D6A82217A73A11B0C00D2B08C520B830B3EDC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7743E05A-671C-471C-8780-A8BCDA67AD8C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$15</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -52,9 +63,6 @@
     <t>DIRETORIA GENTE E GESTAO</t>
   </si>
   <si>
-    <t>03/09/2025</t>
-  </si>
-  <si>
     <t>DIRETORIA ADMINISTRATIVA</t>
   </si>
   <si>
@@ -67,9 +75,6 @@
     <t>DIRETORIA COMERCIAL NOVOS PRODUTOS</t>
   </si>
   <si>
-    <t>22/10/2025</t>
-  </si>
-  <si>
     <t>ALMOXARIFADO NRD</t>
   </si>
   <si>
@@ -85,12 +90,6 @@
     <t>INTELIGENCIA DE MERCADO</t>
   </si>
   <si>
-    <t>20/08/2025</t>
-  </si>
-  <si>
-    <t>17/09/2025</t>
-  </si>
-  <si>
     <t>ENERGIA ELETRICA</t>
   </si>
   <si>
@@ -142,20 +141,23 @@
     <t>PEDRO NATANIEL GABILON ARCE</t>
   </si>
   <si>
-    <t>NRD</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>SOMAR IDEIAS</t>
+    <t>TERMINO CONTRATO</t>
+  </si>
+  <si>
+    <t>Narandiba</t>
+  </si>
+  <si>
+    <t>Paraguaçu Paulista</t>
+  </si>
+  <si>
+    <t>03-09-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -165,16 +167,41 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF31333F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,14 +209,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,20 +556,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -527,7 +580,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -539,8 +592,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -548,19 +601,22 @@
         <v>3008400</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45889</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>39</v>
+      <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3">
+        <v>46371</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -568,19 +624,22 @@
         <v>3008500</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
         <v>20</v>
       </c>
+      <c r="C3" s="3">
+        <v>45889</v>
+      </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>39</v>
+      <c r="F3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3">
+        <v>46736</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -588,22 +647,22 @@
         <v>3008700</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45889</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4">
-        <v>24</v>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3">
+        <v>46006</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -611,19 +670,22 @@
         <v>3008800</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45889</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3">
+        <v>46218</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -631,19 +693,22 @@
         <v>3009200</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45889</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>39</v>
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3">
+        <v>46006</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -651,19 +716,22 @@
         <v>3010100</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
-        <v>39</v>
+      <c r="F7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3">
+        <v>46188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -671,19 +739,22 @@
         <v>3013900</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45917</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>39</v>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46188</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -691,19 +762,22 @@
         <v>3014200</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45917</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3">
+        <v>46188</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -711,22 +785,22 @@
         <v>3014500</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45917</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>46188</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -734,19 +808,22 @@
         <v>3014900</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45917</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" t="s">
-        <v>39</v>
+      <c r="F11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="3">
+        <v>46188</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -754,19 +831,22 @@
         <v>3438900</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45952</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
-        <v>40</v>
+      <c r="F12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="3">
+        <v>46188</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -774,19 +854,22 @@
         <v>3008600</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45889</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="6">
+        <v>46188</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -794,19 +877,22 @@
         <v>3008900</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45889</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="F14" t="s">
-        <v>40</v>
+      <c r="F14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="7">
+        <v>46218</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -814,20 +900,26 @@
         <v>3013700</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45917</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="3">
+        <v>46006</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F15" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -836,10 +928,31 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6cfdc422-4535-48e1-a7d6-54c46d46b3db">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fd004d49-9b54-446a-bd24-b27319634c19" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002A76BE3EC65CB949A388A0006AFBA350" ma:contentTypeVersion="14" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="12d2b671dc11efdd8b011f1a12bd546d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6cfdc422-4535-48e1-a7d6-54c46d46b3db" xmlns:ns3="fd004d49-9b54-446a-bd24-b27319634c19" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="700d5dfc38fcea7e0185f85e8ac1c034" ns2:_="" ns3:_="">
     <xsd:import namespace="6cfdc422-4535-48e1-a7d6-54c46d46b3db"/>
@@ -1068,27 +1181,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFE6D547-826E-4971-B6CB-F0E20E3BD5FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6cfdc422-4535-48e1-a7d6-54c46d46b3db">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fd004d49-9b54-446a-bd24-b27319634c19" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FBBB00-82D6-4DF6-9A26-748E99A10370}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6cfdc422-4535-48e1-a7d6-54c46d46b3db"/>
+    <ds:schemaRef ds:uri="fd004d49-9b54-446a-bd24-b27319634c19"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1318481C-CA69-429D-8C0D-91FF900F8D59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1105,23 +1217,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFE6D547-826E-4971-B6CB-F0E20E3BD5FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FBBB00-82D6-4DF6-9A26-748E99A10370}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6cfdc422-4535-48e1-a7d6-54c46d46b3db"/>
-    <ds:schemaRef ds:uri="fd004d49-9b54-446a-bd24-b27319634c19"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Base.xlsx
+++ b/Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupococal.sharepoint.com/sites/Automaoboletins/Documentos Partilhados/Recursos Humanos/DHO/PHYTON/MeuDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="11_F8D6A82217A73A11B0C00D2B08C520B830B3EDC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7743E05A-671C-471C-8780-A8BCDA67AD8C}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="11_F8D6A82217A73A11B0C00D2B08C520B830B3EDC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9448967-7858-47B7-8299-DABADE8107D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -241,7 +241,6 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +558,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -718,7 +717,7 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D7" t="s">
@@ -933,15 +932,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="6cfdc422-4535-48e1-a7d6-54c46d46b3db">
@@ -950,6 +940,15 @@
     <TaxCatchAll xmlns="fd004d49-9b54-446a-bd24-b27319634c19" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1182,20 +1181,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFE6D547-826E-4971-B6CB-F0E20E3BD5FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FBBB00-82D6-4DF6-9A26-748E99A10370}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="6cfdc422-4535-48e1-a7d6-54c46d46b3db"/>
     <ds:schemaRef ds:uri="fd004d49-9b54-446a-bd24-b27319634c19"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFE6D547-826E-4971-B6CB-F0E20E3BD5FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Base.xlsx
+++ b/Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupococal.sharepoint.com/sites/Automaoboletins/Documentos Partilhados/Recursos Humanos/DHO/PHYTON/MeuDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="11_F8D6A82217A73A11B0C00D2B08C520B830B3EDC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9448967-7858-47B7-8299-DABADE8107D9}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="11_F8D6A82217A73A11B0C00D2B08C520B830B3EDC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCDC37FE-E7C2-4FEB-826B-CDB4D0F9042B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>Paraguaçu Paulista</t>
-  </si>
-  <si>
-    <t>03-09-2025</t>
   </si>
 </sst>
 </file>
@@ -558,7 +555,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -717,8 +714,8 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
+      <c r="C7" s="3">
+        <v>45903</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -932,6 +929,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="6cfdc422-4535-48e1-a7d6-54c46d46b3db">
@@ -940,15 +946,6 @@
     <TaxCatchAll xmlns="fd004d49-9b54-446a-bd24-b27319634c19" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1181,20 +1178,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFE6D547-826E-4971-B6CB-F0E20E3BD5FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FBBB00-82D6-4DF6-9A26-748E99A10370}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="6cfdc422-4535-48e1-a7d6-54c46d46b3db"/>
     <ds:schemaRef ds:uri="fd004d49-9b54-446a-bd24-b27319634c19"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFE6D547-826E-4971-B6CB-F0E20E3BD5FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Base.xlsx
+++ b/Base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupococal.sharepoint.com/sites/Automaoboletins/Documentos Partilhados/Recursos Humanos/DHO/PHYTON/MeuDashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupococal.sharepoint.com/sites/RecursosHumanos/DHO/PRIVADO/PROGRAMAS - MAICON/PHYTON/MeuDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="168" documentId="11_F8D6A82217A73A11B0C00D2B08C520B830B3EDC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCDC37FE-E7C2-4FEB-826B-CDB4D0F9042B}"/>
@@ -555,7 +555,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -929,6 +929,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="faa20ac1-f4f3-4dff-a8e1-35fb31521685">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d1db3d2a-5895-43d6-a975-46fa68ca752e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -937,41 +948,32 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6cfdc422-4535-48e1-a7d6-54c46d46b3db">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fd004d49-9b54-446a-bd24-b27319634c19" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002A76BE3EC65CB949A388A0006AFBA350" ma:contentTypeVersion="14" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="12d2b671dc11efdd8b011f1a12bd546d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6cfdc422-4535-48e1-a7d6-54c46d46b3db" xmlns:ns3="fd004d49-9b54-446a-bd24-b27319634c19" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="700d5dfc38fcea7e0185f85e8ac1c034" ns2:_="" ns3:_="">
-    <xsd:import namespace="6cfdc422-4535-48e1-a7d6-54c46d46b3db"/>
-    <xsd:import namespace="fd004d49-9b54-446a-bd24-b27319634c19"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C60396163D896849A1ADAFA5FD368BD9" ma:contentTypeVersion="16" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="43284ecab85782590ce940133bf57211">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1db3d2a-5895-43d6-a975-46fa68ca752e" xmlns:ns3="faa20ac1-f4f3-4dff-a8e1-35fb31521685" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2aad0b776aecc2864c7db4082ced52e" ns2:_="" ns3:_="">
+    <xsd:import namespace="d1db3d2a-5895-43d6-a975-46fa68ca752e"/>
+    <xsd:import namespace="faa20ac1-f4f3-4dff-a8e1-35fb31521685"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -979,79 +981,10 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6cfdc422-4535-48e1-a7d6-54c46d46b3db" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d1db3d2a-5895-43d6-a975-46fa68ca752e" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de Imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="fb452c2c-4b83-4bd7-882d-26a525314b91" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="18" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fd004d49-9b54-446a-bd24-b27319634c19" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{37fec862-47ec-47d2-a434-5d67d3fb44cb}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="fd004d49-9b54-446a-bd24-b27319634c19">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Partilhado Com" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Partilhado Com" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1070,11 +1003,90 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Detalhes de Partilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalhes de Partilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8f9bfb47-25d8-4f7f-92b9-9a294c06e699}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d1db3d2a-5895-43d6-a975-46fa68ca752e">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="faa20ac1-f4f3-4dff-a8e1-35fb31521685" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de Imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="fb452c2c-4b83-4bd7-882d-26a525314b91" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="23" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1178,6 +1190,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FBBB00-82D6-4DF6-9A26-748E99A10370}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6cfdc422-4535-48e1-a7d6-54c46d46b3db"/>
+    <ds:schemaRef ds:uri="fd004d49-9b54-446a-bd24-b27319634c19"/>
+    <ds:schemaRef ds:uri="faa20ac1-f4f3-4dff-a8e1-35fb31521685"/>
+    <ds:schemaRef ds:uri="d1db3d2a-5895-43d6-a975-46fa68ca752e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFE6D547-826E-4971-B6CB-F0E20E3BD5FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1185,32 +1210,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FBBB00-82D6-4DF6-9A26-748E99A10370}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6cfdc422-4535-48e1-a7d6-54c46d46b3db"/>
-    <ds:schemaRef ds:uri="fd004d49-9b54-446a-bd24-b27319634c19"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1318481C-CA69-429D-8C0D-91FF900F8D59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6cfdc422-4535-48e1-a7d6-54c46d46b3db"/>
-    <ds:schemaRef ds:uri="fd004d49-9b54-446a-bd24-b27319634c19"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{176ABCCB-D3AD-4E47-A0CA-A8805E5C8669}"/>
 </file>